--- a/data/trans_dic/P33B_R5-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R5-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.1319393281270841</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2167289260244817</v>
+        <v>0.2167289260244816</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1790499014749448</v>
+        <v>0.1790499014749447</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1057938284487211</v>
+        <v>0.1054997968587398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1898448680940043</v>
+        <v>0.1902957398766348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1574827181090784</v>
+        <v>0.1574052789253211</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1632678046554516</v>
+        <v>0.1683496282180177</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2426010362992912</v>
+        <v>0.2437638248509177</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1996516403442041</v>
+        <v>0.2011960633787076</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06159762212661986</v>
+        <v>0.06205834411898654</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1365111779432705</v>
+        <v>0.1393417445547152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1082169241855345</v>
+        <v>0.1063548217133849</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.092625950928532</v>
+        <v>0.09434785318099624</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1735362921192069</v>
+        <v>0.1716609645047177</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1329422240129804</v>
+        <v>0.1313904297496198</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05414266158731621</v>
+        <v>0.05414266158731622</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09136808367048926</v>
+        <v>0.09136808367048928</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.07276570375158307</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04288065164484776</v>
+        <v>0.04271886601855745</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07714411745576247</v>
+        <v>0.07610162588858123</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06247817081357371</v>
+        <v>0.0624247194228861</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06813756641878699</v>
+        <v>0.07029550857018836</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.108116192748565</v>
+        <v>0.1068552431389019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08382014702587873</v>
+        <v>0.08289073513407033</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.04021189145141176</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07445222718624031</v>
+        <v>0.0744522271862403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.05671711444735135</v>
+        <v>0.05671711444735133</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02951238315537335</v>
+        <v>0.02919555980657543</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06107350579909189</v>
+        <v>0.06189004914725702</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04735431549551102</v>
+        <v>0.04759579040917046</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05702570295962262</v>
+        <v>0.05669649009022469</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09038133272290712</v>
+        <v>0.0890809973949125</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06792629406261211</v>
+        <v>0.06697920850217635</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.06770920063708909</v>
+        <v>0.06770920063708907</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1274972094906385</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05934330976841985</v>
+        <v>0.06024538256958082</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1170684892555753</v>
+        <v>0.1183099328535601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09197436737667439</v>
+        <v>0.09158902786878823</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07631906511360573</v>
+        <v>0.07608139422753106</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1364320503166983</v>
+        <v>0.1366696635074167</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1044955489924797</v>
+        <v>0.1048495498936602</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>52764</v>
+        <v>52617</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>118383</v>
+        <v>118665</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>176746</v>
+        <v>176659</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>81428</v>
+        <v>83963</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>151281</v>
+        <v>152006</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>224073</v>
+        <v>225806</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>59142</v>
+        <v>59585</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>152235</v>
+        <v>155391</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>224584</v>
+        <v>220720</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>88934</v>
+        <v>90587</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>193524</v>
+        <v>191433</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>275897</v>
+        <v>272677</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>44874</v>
+        <v>44704</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>80819</v>
+        <v>79727</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>130837</v>
+        <v>130725</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>71305</v>
+        <v>73563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>113267</v>
+        <v>111946</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>175530</v>
+        <v>173583</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28802</v>
+        <v>28493</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>55470</v>
+        <v>56212</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>89224</v>
+        <v>89679</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55653</v>
+        <v>55332</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>82089</v>
+        <v>80908</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>127985</v>
+        <v>126201</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>206591</v>
+        <v>209731</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>432527</v>
+        <v>437114</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>660002</v>
+        <v>657237</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>265688</v>
+        <v>264861</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>504069</v>
+        <v>504947</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>749854</v>
+        <v>752394</v>
       </c>
     </row>
     <row r="24">
